--- a/inreg.xlsx
+++ b/inreg.xlsx
@@ -30,6 +30,18 @@
     <t>01.02.2017</t>
   </si>
   <si>
+    <t>NumCode</t>
+  </si>
+  <si>
+    <t>CharCode</t>
+  </si>
+  <si>
+    <t>Nominal</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
     <t>051</t>
   </si>
   <si>
@@ -541,18 +553,6 @@
   </si>
   <si>
     <t>20.1552</t>
-  </si>
-  <si>
-    <t>NumCode</t>
-  </si>
-  <si>
-    <t>CharCode</t>
-  </si>
-  <si>
-    <t>Nominal</t>
-  </si>
-  <si>
-    <t>Value</t>
   </si>
   <si>
     <t>01.03.2018</t>
@@ -1146,38 +1146,38 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -1194,7 +1194,7 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -1211,7 +1211,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -1228,7 +1228,7 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -1245,24 +1245,24 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>37</v>
@@ -1279,7 +1279,7 @@
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>41</v>
@@ -1296,7 +1296,7 @@
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
@@ -1313,7 +1313,7 @@
         <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
         <v>49</v>
@@ -1330,7 +1330,7 @@
         <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
         <v>53</v>
@@ -1347,7 +1347,7 @@
         <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
         <v>57</v>
@@ -1364,7 +1364,7 @@
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
         <v>61</v>
@@ -1381,7 +1381,7 @@
         <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
         <v>65</v>
@@ -1398,7 +1398,7 @@
         <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
         <v>69</v>
@@ -1415,7 +1415,7 @@
         <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
         <v>73</v>
@@ -1432,7 +1432,7 @@
         <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
         <v>77</v>
@@ -1449,7 +1449,7 @@
         <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
         <v>81</v>
@@ -1466,7 +1466,7 @@
         <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
         <v>85</v>
@@ -1483,7 +1483,7 @@
         <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
         <v>89</v>
@@ -1500,7 +1500,7 @@
         <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
         <v>93</v>
@@ -1517,7 +1517,7 @@
         <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
         <v>97</v>
@@ -1534,7 +1534,7 @@
         <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
         <v>101</v>
@@ -1551,7 +1551,7 @@
         <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
         <v>105</v>
@@ -1568,7 +1568,7 @@
         <v>108</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
         <v>109</v>
@@ -1585,7 +1585,7 @@
         <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
         <v>113</v>
@@ -1602,7 +1602,7 @@
         <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
         <v>117</v>
@@ -1619,7 +1619,7 @@
         <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
         <v>121</v>
@@ -1636,7 +1636,7 @@
         <v>124</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
         <v>125</v>
@@ -1653,7 +1653,7 @@
         <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
         <v>129</v>
@@ -1670,7 +1670,7 @@
         <v>132</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
         <v>133</v>
@@ -1687,7 +1687,7 @@
         <v>136</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
         <v>137</v>
@@ -1704,7 +1704,7 @@
         <v>140</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
         <v>141</v>
@@ -1721,7 +1721,7 @@
         <v>144</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
         <v>145</v>
@@ -1738,7 +1738,7 @@
         <v>148</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
         <v>149</v>
@@ -1755,7 +1755,7 @@
         <v>152</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
         <v>153</v>
@@ -1772,7 +1772,7 @@
         <v>156</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
         <v>157</v>
@@ -1789,7 +1789,7 @@
         <v>160</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
         <v>161</v>
@@ -1806,7 +1806,7 @@
         <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
         <v>165</v>
@@ -1823,7 +1823,7 @@
         <v>168</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D43" t="s">
         <v>169</v>
@@ -1840,7 +1840,7 @@
         <v>172</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
         <v>173</v>
@@ -1857,10 +1857,10 @@
         <v>176</v>
       </c>
       <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
         <v>177</v>
-      </c>
-      <c r="D45" t="s">
-        <v>0</v>
       </c>
       <c r="E45" t="s">
         <v>178</v>
@@ -1906,44 +1906,44 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6">
@@ -1954,13 +1954,13 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7">
@@ -1971,13 +1971,13 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8">
@@ -1988,13 +1988,13 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9">
@@ -2005,30 +2005,30 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
       <c r="E9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11">
@@ -2039,13 +2039,13 @@
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12">
@@ -2056,13 +2056,13 @@
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13">
@@ -2073,13 +2073,13 @@
         <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
         <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14">
@@ -2090,13 +2090,13 @@
         <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
         <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15">
@@ -2107,13 +2107,13 @@
         <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
         <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16">
@@ -2124,13 +2124,13 @@
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
         <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17">
@@ -2141,13 +2141,13 @@
         <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
         <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18">
@@ -2158,13 +2158,13 @@
         <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
         <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19">
@@ -2175,13 +2175,13 @@
         <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
         <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20">
@@ -2192,13 +2192,13 @@
         <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
         <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21">
@@ -2209,13 +2209,13 @@
         <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
         <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
@@ -2226,13 +2226,13 @@
         <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
         <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23">
@@ -2243,13 +2243,13 @@
         <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
         <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24">
@@ -2260,13 +2260,13 @@
         <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
         <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25">
@@ -2277,13 +2277,13 @@
         <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
         <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26">
@@ -2294,13 +2294,13 @@
         <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
         <v>101</v>
       </c>
       <c r="E26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27">
@@ -2311,13 +2311,13 @@
         <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
         <v>105</v>
       </c>
       <c r="E27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28">
@@ -2328,13 +2328,13 @@
         <v>108</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
         <v>109</v>
       </c>
       <c r="E28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29">
@@ -2345,13 +2345,13 @@
         <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
         <v>113</v>
       </c>
       <c r="E29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30">
@@ -2362,13 +2362,13 @@
         <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
         <v>117</v>
       </c>
       <c r="E30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31">
@@ -2379,13 +2379,13 @@
         <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
         <v>121</v>
       </c>
       <c r="E31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32">
@@ -2396,13 +2396,13 @@
         <v>124</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
         <v>125</v>
       </c>
       <c r="E32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33">
@@ -2413,13 +2413,13 @@
         <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
         <v>129</v>
       </c>
       <c r="E33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34">
@@ -2430,13 +2430,13 @@
         <v>132</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
         <v>133</v>
       </c>
       <c r="E34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35">
@@ -2447,13 +2447,13 @@
         <v>136</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
         <v>137</v>
       </c>
       <c r="E35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36">
@@ -2464,13 +2464,13 @@
         <v>140</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
         <v>141</v>
       </c>
       <c r="E36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37">
@@ -2481,13 +2481,13 @@
         <v>144</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
         <v>145</v>
       </c>
       <c r="E37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38">
@@ -2498,13 +2498,13 @@
         <v>148</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
         <v>149</v>
       </c>
       <c r="E38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39">
@@ -2515,13 +2515,13 @@
         <v>152</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
         <v>153</v>
       </c>
       <c r="E39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40">
@@ -2532,13 +2532,13 @@
         <v>156</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
         <v>157</v>
       </c>
       <c r="E40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41">
@@ -2549,13 +2549,13 @@
         <v>160</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
         <v>161</v>
       </c>
       <c r="E41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42">
@@ -2566,13 +2566,13 @@
         <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
         <v>165</v>
       </c>
       <c r="E42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43">
@@ -2583,13 +2583,13 @@
         <v>168</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D43" t="s">
         <v>169</v>
       </c>
       <c r="E43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44">
@@ -2600,13 +2600,13 @@
         <v>172</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
         <v>173</v>
       </c>
       <c r="E44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45">
@@ -2617,13 +2617,13 @@
         <v>176</v>
       </c>
       <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
         <v>177</v>
       </c>
-      <c r="D45" t="s">
-        <v>0</v>
-      </c>
       <c r="E45" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2666,44 +2666,44 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6">
@@ -2714,13 +2714,13 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7">
@@ -2731,13 +2731,13 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8">
@@ -2748,13 +2748,13 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9">
@@ -2765,30 +2765,30 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
       <c r="E9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11">
@@ -2799,13 +2799,13 @@
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12">
@@ -2816,13 +2816,13 @@
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13">
@@ -2833,13 +2833,13 @@
         <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
         <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14">
@@ -2850,13 +2850,13 @@
         <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
         <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15">
@@ -2867,13 +2867,13 @@
         <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
         <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16">
@@ -2884,13 +2884,13 @@
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
         <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17">
@@ -2901,13 +2901,13 @@
         <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
         <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18">
@@ -2918,13 +2918,13 @@
         <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
         <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19">
@@ -2935,13 +2935,13 @@
         <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
         <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20">
@@ -2952,13 +2952,13 @@
         <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
         <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21">
@@ -2969,13 +2969,13 @@
         <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
         <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22">
@@ -2986,13 +2986,13 @@
         <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
         <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23">
@@ -3003,13 +3003,13 @@
         <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
         <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24">
@@ -3020,13 +3020,13 @@
         <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
         <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25">
@@ -3037,13 +3037,13 @@
         <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
         <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26">
@@ -3054,13 +3054,13 @@
         <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
         <v>101</v>
       </c>
       <c r="E26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27">
@@ -3071,13 +3071,13 @@
         <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
         <v>105</v>
       </c>
       <c r="E27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28">
@@ -3088,13 +3088,13 @@
         <v>108</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
         <v>109</v>
       </c>
       <c r="E28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29">
@@ -3105,13 +3105,13 @@
         <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
         <v>113</v>
       </c>
       <c r="E29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30">
@@ -3122,13 +3122,13 @@
         <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
         <v>117</v>
       </c>
       <c r="E30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31">
@@ -3139,13 +3139,13 @@
         <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
         <v>121</v>
       </c>
       <c r="E31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32">
@@ -3156,13 +3156,13 @@
         <v>124</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
         <v>125</v>
       </c>
       <c r="E32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33">
@@ -3173,13 +3173,13 @@
         <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
         <v>129</v>
       </c>
       <c r="E33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34">
@@ -3190,13 +3190,13 @@
         <v>132</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
         <v>133</v>
       </c>
       <c r="E34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35">
@@ -3207,13 +3207,13 @@
         <v>136</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
         <v>137</v>
       </c>
       <c r="E35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36">
@@ -3224,13 +3224,13 @@
         <v>140</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
         <v>141</v>
       </c>
       <c r="E36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37">
@@ -3241,13 +3241,13 @@
         <v>144</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
         <v>145</v>
       </c>
       <c r="E37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38">
@@ -3258,13 +3258,13 @@
         <v>148</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
         <v>149</v>
       </c>
       <c r="E38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39">
@@ -3275,13 +3275,13 @@
         <v>152</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
         <v>153</v>
       </c>
       <c r="E39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40">
@@ -3292,13 +3292,13 @@
         <v>156</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
         <v>157</v>
       </c>
       <c r="E40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41">
@@ -3309,13 +3309,13 @@
         <v>160</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
         <v>161</v>
       </c>
       <c r="E41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42">
@@ -3326,13 +3326,13 @@
         <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
         <v>165</v>
       </c>
       <c r="E42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43">
@@ -3343,13 +3343,13 @@
         <v>168</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D43" t="s">
         <v>169</v>
       </c>
       <c r="E43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44">
@@ -3360,13 +3360,13 @@
         <v>172</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
         <v>173</v>
       </c>
       <c r="E44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45">
@@ -3377,13 +3377,13 @@
         <v>176</v>
       </c>
       <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
         <v>177</v>
       </c>
-      <c r="D45" t="s">
-        <v>0</v>
-      </c>
       <c r="E45" t="s">
-        <v>178</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3426,44 +3426,44 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6">
@@ -3474,13 +3474,13 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7">
@@ -3491,13 +3491,13 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8">
@@ -3508,13 +3508,13 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9">
@@ -3525,30 +3525,30 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
       <c r="E9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11">
@@ -3559,13 +3559,13 @@
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12">
@@ -3576,13 +3576,13 @@
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13">
@@ -3593,13 +3593,13 @@
         <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
         <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14">
@@ -3610,13 +3610,13 @@
         <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
         <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15">
@@ -3627,13 +3627,13 @@
         <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
         <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16">
@@ -3644,13 +3644,13 @@
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
         <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17">
@@ -3661,13 +3661,13 @@
         <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
         <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18">
@@ -3678,13 +3678,13 @@
         <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
         <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19">
@@ -3695,13 +3695,13 @@
         <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
         <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20">
@@ -3712,13 +3712,13 @@
         <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
         <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21">
@@ -3729,13 +3729,13 @@
         <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
         <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22">
@@ -3746,13 +3746,13 @@
         <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
         <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23">
@@ -3763,13 +3763,13 @@
         <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
         <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24">
@@ -3780,13 +3780,13 @@
         <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
         <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25">
@@ -3797,13 +3797,13 @@
         <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
         <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26">
@@ -3814,13 +3814,13 @@
         <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
         <v>101</v>
       </c>
       <c r="E26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27">
@@ -3831,13 +3831,13 @@
         <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
         <v>105</v>
       </c>
       <c r="E27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28">
@@ -3848,13 +3848,13 @@
         <v>108</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
         <v>109</v>
       </c>
       <c r="E28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29">
@@ -3865,13 +3865,13 @@
         <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
         <v>113</v>
       </c>
       <c r="E29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30">
@@ -3882,13 +3882,13 @@
         <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
         <v>117</v>
       </c>
       <c r="E30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31">
@@ -3899,13 +3899,13 @@
         <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
         <v>121</v>
       </c>
       <c r="E31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32">
@@ -3916,13 +3916,13 @@
         <v>124</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
         <v>125</v>
       </c>
       <c r="E32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33">
@@ -3933,13 +3933,13 @@
         <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
         <v>129</v>
       </c>
       <c r="E33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34">
@@ -3950,13 +3950,13 @@
         <v>132</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
         <v>133</v>
       </c>
       <c r="E34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35">
@@ -3967,13 +3967,13 @@
         <v>136</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
         <v>137</v>
       </c>
       <c r="E35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36">
@@ -3984,13 +3984,13 @@
         <v>140</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
         <v>141</v>
       </c>
       <c r="E36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37">
@@ -4001,13 +4001,13 @@
         <v>144</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
         <v>145</v>
       </c>
       <c r="E37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38">
@@ -4018,13 +4018,13 @@
         <v>148</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
         <v>149</v>
       </c>
       <c r="E38" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39">
@@ -4035,13 +4035,13 @@
         <v>152</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
         <v>153</v>
       </c>
       <c r="E39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40">
@@ -4052,13 +4052,13 @@
         <v>156</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
         <v>157</v>
       </c>
       <c r="E40" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41">
@@ -4069,13 +4069,13 @@
         <v>160</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
         <v>161</v>
       </c>
       <c r="E41" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42">
@@ -4086,13 +4086,13 @@
         <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
         <v>165</v>
       </c>
       <c r="E42" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43">
@@ -4103,13 +4103,13 @@
         <v>168</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D43" t="s">
         <v>169</v>
       </c>
       <c r="E43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44">
@@ -4120,13 +4120,13 @@
         <v>172</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
         <v>173</v>
       </c>
       <c r="E44" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45">
@@ -4137,13 +4137,13 @@
         <v>176</v>
       </c>
       <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
         <v>177</v>
       </c>
-      <c r="D45" t="s">
-        <v>0</v>
-      </c>
       <c r="E45" t="s">
-        <v>178</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -4186,44 +4186,44 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6">
@@ -4234,13 +4234,13 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7">
@@ -4251,13 +4251,13 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8">
@@ -4268,13 +4268,13 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9">
@@ -4285,30 +4285,30 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
       <c r="E9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11">
@@ -4319,13 +4319,13 @@
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12">
@@ -4336,13 +4336,13 @@
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13">
@@ -4353,13 +4353,13 @@
         <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
         <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14">
@@ -4370,13 +4370,13 @@
         <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
         <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15">
@@ -4387,13 +4387,13 @@
         <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
         <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16">
@@ -4404,13 +4404,13 @@
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
         <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17">
@@ -4421,13 +4421,13 @@
         <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
         <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18">
@@ -4438,13 +4438,13 @@
         <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
         <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19">
@@ -4455,13 +4455,13 @@
         <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
         <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20">
@@ -4472,13 +4472,13 @@
         <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
         <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21">
@@ -4489,13 +4489,13 @@
         <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
         <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22">
@@ -4506,13 +4506,13 @@
         <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
         <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23">
@@ -4523,13 +4523,13 @@
         <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
         <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24">
@@ -4540,13 +4540,13 @@
         <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
         <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25">
@@ -4557,13 +4557,13 @@
         <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
         <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26">
@@ -4574,13 +4574,13 @@
         <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
         <v>101</v>
       </c>
       <c r="E26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27">
@@ -4591,13 +4591,13 @@
         <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
         <v>105</v>
       </c>
       <c r="E27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28">
@@ -4608,13 +4608,13 @@
         <v>108</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
         <v>109</v>
       </c>
       <c r="E28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29">
@@ -4625,13 +4625,13 @@
         <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
         <v>113</v>
       </c>
       <c r="E29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30">
@@ -4642,13 +4642,13 @@
         <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
         <v>117</v>
       </c>
       <c r="E30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31">
@@ -4659,13 +4659,13 @@
         <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
         <v>121</v>
       </c>
       <c r="E31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32">
@@ -4676,13 +4676,13 @@
         <v>124</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
         <v>125</v>
       </c>
       <c r="E32" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33">
@@ -4693,13 +4693,13 @@
         <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
         <v>129</v>
       </c>
       <c r="E33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34">
@@ -4710,13 +4710,13 @@
         <v>132</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
         <v>133</v>
       </c>
       <c r="E34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35">
@@ -4727,13 +4727,13 @@
         <v>136</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
         <v>137</v>
       </c>
       <c r="E35" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36">
@@ -4744,13 +4744,13 @@
         <v>140</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
         <v>141</v>
       </c>
       <c r="E36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="37">
@@ -4761,13 +4761,13 @@
         <v>144</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
         <v>145</v>
       </c>
       <c r="E37" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38">
@@ -4778,13 +4778,13 @@
         <v>148</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
         <v>149</v>
       </c>
       <c r="E38" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39">
@@ -4795,13 +4795,13 @@
         <v>152</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
         <v>153</v>
       </c>
       <c r="E39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40">
@@ -4812,13 +4812,13 @@
         <v>156</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
         <v>157</v>
       </c>
       <c r="E40" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41">
@@ -4829,13 +4829,13 @@
         <v>160</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
         <v>161</v>
       </c>
       <c r="E41" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42">
@@ -4846,13 +4846,13 @@
         <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
         <v>165</v>
       </c>
       <c r="E42" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43">
@@ -4863,13 +4863,13 @@
         <v>168</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D43" t="s">
         <v>169</v>
       </c>
       <c r="E43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44">
@@ -4880,13 +4880,13 @@
         <v>172</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
         <v>173</v>
       </c>
       <c r="E44" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45">
@@ -4897,13 +4897,13 @@
         <v>176</v>
       </c>
       <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
         <v>177</v>
       </c>
-      <c r="D45" t="s">
-        <v>0</v>
-      </c>
       <c r="E45" t="s">
-        <v>178</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
